--- a/测试excel+github是否好用.xlsx
+++ b/测试excel+github是否好用.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoyingjie/Desktop/三花/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4975D31-8FEF-2547-A89C-4AFC98BAC67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED75857-088F-504C-98CE-14895FD58F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="1000" windowWidth="25040" windowHeight="13880" xr2:uid="{407EE77A-2367-B845-9BB7-FAB5A532BD75}"/>
+    <workbookView xWindow="3420" yWindow="1360" windowWidth="25040" windowHeight="13880" activeTab="1" xr2:uid="{407EE77A-2367-B845-9BB7-FAB5A532BD75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="第二周" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -658,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F06C149-48AE-7E4F-AC3A-C1B5CDE38AA5}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="A17:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -871,4 +872,18 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6BE72F-135A-424B-A0CD-86DCC2DA1094}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/测试excel+github是否好用.xlsx
+++ b/测试excel+github是否好用.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoyingjie/Desktop/三花/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED75857-088F-504C-98CE-14895FD58F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D433F8-C40E-6844-B6D1-4B4AF7E26DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1360" windowWidth="25040" windowHeight="13880" activeTab="1" xr2:uid="{407EE77A-2367-B845-9BB7-FAB5A532BD75}"/>
+    <workbookView xWindow="560" yWindow="1000" windowWidth="25040" windowHeight="13880" activeTab="3" xr2:uid="{407EE77A-2367-B845-9BB7-FAB5A532BD75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="第二周" sheetId="2" r:id="rId2"/>
+    <sheet name="第三周" sheetId="3" r:id="rId3"/>
+    <sheet name="第四周" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>HC18</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -294,53 +296,53 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -660,199 +662,199 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="A17:E24"/>
+      <selection activeCell="A9" sqref="A9:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="6"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="10"/>
-      <c r="E3" s="9"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="5"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="5" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="6"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="6"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="18"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="21"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="6"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="6"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="10"/>
-      <c r="E11" s="9"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="5"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="6"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="6"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="6"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="6"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="18"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="5" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="6"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="17"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="6"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="17"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="6"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="21"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="6"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="6"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="6"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="18"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="21"/>
     </row>
   </sheetData>
@@ -878,8 +880,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6BE72F-135A-424B-A0CD-86DCC2DA1094}">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0EC1C2-81A0-1F43-8C87-9873BB82A637}">
+  <dimension ref="A3:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="3" spans="1:5">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="15"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="15"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="5"/>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="15"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="15"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="15"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="15"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="16"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E7:E10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3752C8D8-1D82-C74B-B536-425CAD9E8E6F}">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
